--- a/Lit Review List.xlsx
+++ b/Lit Review List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E83F46F-49D4-45BC-9FBD-45AED2CFBBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6C8636-9C68-497F-9F79-BC556B09583D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{FECC802B-2A2B-4807-A398-78465B6A0B26}"/>
+    <workbookView xWindow="570" yWindow="190" windowWidth="19830" windowHeight="20480" xr2:uid="{FECC802B-2A2B-4807-A398-78465B6A0B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,93 @@
   </si>
   <si>
     <t xml:space="preserve">type of algorithm and architecture that will help with balance within my prototype. Look at lethality from minute 28. </t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Mechanics</t>
+  </si>
+  <si>
+    <t>Insomniac Games</t>
+  </si>
+  <si>
+    <t>Marvel`s Spider-Man</t>
+  </si>
+  <si>
+    <t>https://www.playstation.com/en-gb/games/marvels-spider-man/</t>
+  </si>
+  <si>
+    <t>Call of Duty 4: Modern Warfare (2007)</t>
+  </si>
+  <si>
+    <t>Infinity Ward</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/7940/Call_of_Duty_4_Modern_Warfare_2007/</t>
+  </si>
+  <si>
+    <t>Call of Duty: Modern Warfare (2019)</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2000950/Call_of_Duty_Modern_Warfare/</t>
+  </si>
+  <si>
+    <t>Battlefield 1</t>
+  </si>
+  <si>
+    <t>DICE</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1238840/Battlefield_1/</t>
+  </si>
+  <si>
+    <t>Instant fail upon detection. Behaviour tree/ FSM could be better designed to allow the player to escape continue rather than setting them back to the beginning</t>
+  </si>
+  <si>
+    <t>Unintuitive UI for stealth. There is no indication to the player when they are visible or not. No indication when an enemy is about to spot them. No indication of what 'state' the enemy is in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --------------------------------------------- follow one path with no options, (only use if I have nothing to talk about)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unintuitive UI. Unable to depict the current state of the enemy. Improvement on the previous iteration with the light meter to show how visible the player is. </t>
+  </si>
+  <si>
+    <t>Great mechanic for the lights. However, there is no counter and turning the lights off completely across the map is easy to do and very overpowered. The enemy should have some sort of counter or you could limit the usage or effectiveness of the mechanic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No additional mechanics. Leads to the same repeated gameplay. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance and Traversal are poor. The balance of the game could conceivably allow the player to take on all the enemies 'all guns blazing', defeating the point of being stealthy. There are also limited traversal options. There is no variation in the different heights the player can be at. They cant be above or below the enemies. It's always on the ground level along with the enemies. </t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Balance and traversal</t>
+  </si>
+  <si>
+    <t>halo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balance   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">done? </t>
+  </si>
+  <si>
+    <t>batman</t>
+  </si>
+  <si>
+    <t>traversal</t>
   </si>
 </sst>
 </file>
@@ -142,12 +229,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,9 +274,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -175,6 +285,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -490,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45134385-93DD-46B0-8E9B-518F5353B584}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,347 +631,480 @@
     <col min="3" max="3" width="26.1796875" customWidth="1"/>
     <col min="4" max="4" width="41.1796875" customWidth="1"/>
     <col min="5" max="5" width="52.453125" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="F1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>2017</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2016</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>2014</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>2013</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>2014</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{BA556299-5146-4A3B-B79B-25072AC19931}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{F2DEE84B-7426-48CA-991A-C11175E27044}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{27A8E529-6356-4B04-9815-0C7246850FBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>